--- a/src/test/resources/testData/ResourceTranslations.xlsx
+++ b/src/test/resources/testData/ResourceTranslations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802EF800-7A20-46E7-9B96-B4A1E8B6970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EECA960-E798-4C73-A784-99C41905186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4404" yWindow="-9504" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Code</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>TestAutomation1_KZ</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -453,20 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -503,10 +509,33 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;KA80000 PUBLIC</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/testData/ResourceTranslations.xlsx
+++ b/src/test/resources/testData/ResourceTranslations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EECA960-E798-4C73-A784-99C41905186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FBDAB6-43D3-48BA-A632-6EB96BFB36FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4404" yWindow="-9504" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Russian</t>
   </si>
   <si>
-    <t>Kazakh</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -53,15 +50,6 @@
   </si>
   <si>
     <t>TestAutomation1_RU</t>
-  </si>
-  <si>
-    <t>TestAutomation1_KZ</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -459,20 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="15" width="20" customWidth="1"/>
+    <col min="3" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,48 +476,22 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
